--- a/Etapa2/Especificações_UseCases1.xlsx
+++ b/Etapa2/Especificações_UseCases1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>Registar conta</t>
   </si>
   <si>
     <t>Actor Input</t>
@@ -125,9 +122,6 @@
     <t>Utilizador visualiza os detalhes</t>
   </si>
   <si>
-    <t>Adicionar Fotografia</t>
-  </si>
-  <si>
     <t>Pede para adicionar fotografia</t>
   </si>
   <si>
@@ -189,6 +183,152 @@
   </si>
   <si>
     <t>Sistema remove Restaurante da lista de Restaurante de Favoritos</t>
+  </si>
+  <si>
+    <t>Pesquisar por termos</t>
+  </si>
+  <si>
+    <t>Pede para efetuar Pesquisa</t>
+  </si>
+  <si>
+    <t>Mostra opção de pesquisar por voz ou texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aciona o microfone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmite com a voz o input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converte para texto o input </t>
+  </si>
+  <si>
+    <t>Aciona filtros de pesquisa</t>
+  </si>
+  <si>
+    <t>Devolve pesquisa encontrada</t>
+  </si>
+  <si>
+    <t>Alternativa 1
+[pesquisa voz] (passo 2)</t>
+  </si>
+  <si>
+    <t>Alternativa 2
+[pesquisa teclado] (passo 2)</t>
+  </si>
+  <si>
+    <t>Aciona o teclado</t>
+  </si>
+  <si>
+    <t>Visualiza conteúdo da pesquisa</t>
+  </si>
+  <si>
+    <t>Escolhe uma das opções apresentadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escreve através do teclado a pesquisa que deseja </t>
+  </si>
+  <si>
+    <t>devolve pesquisa encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efetuar Registo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regista informação </t>
+  </si>
+  <si>
+    <t>Volta para ação anterior</t>
+  </si>
+  <si>
+    <t>Editar Preferências</t>
+  </si>
+  <si>
+    <t>Pede para visualizar as Preferências</t>
+  </si>
+  <si>
+    <t>Mostra as preferências atuais</t>
+  </si>
+  <si>
+    <t>Escolhe a preferência que necessita de editar</t>
+  </si>
+  <si>
+    <t>Alternativa 1
+[Altera favoritos] (passo 3)</t>
+  </si>
+  <si>
+    <t>Pede para remover prato/restaurante dos favoritos</t>
+  </si>
+  <si>
+    <t>Pergunta se tem a certeza que pretende remover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diz que sim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove prato/restaurante dos favoritos </t>
+  </si>
+  <si>
+    <t>Excessão 1
+[diz que não ] (Alt1 -passo 3 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diz que não </t>
+  </si>
+  <si>
+    <t>volta ao passo 2 (mostra as preferencias atuais )</t>
+  </si>
+  <si>
+    <t>Pede para alterar ingrediente não gostado</t>
+  </si>
+  <si>
+    <t>Disponibiliza campo editável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edita campo com novas informações </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pede para guardar alterações </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regista novas informações </t>
+  </si>
+  <si>
+    <t>Pede para filtrar pratos pelo preço</t>
+  </si>
+  <si>
+    <t>Apresenta opções disponiveis</t>
+  </si>
+  <si>
+    <t>Escolhe opção pretendida</t>
+  </si>
+  <si>
+    <t>Pede para filtrar pesquisa de acordo com determinada  localização</t>
+  </si>
+  <si>
+    <t>Pede para filtrar tipo de cpmida a apresentar nas pesquisas</t>
+  </si>
+  <si>
+    <t>Alternativa 2
+[Altera outras Preferências] (passo 3)</t>
+  </si>
+  <si>
+    <t>Alternativa 3
+[Filtrar preço] (passo 3)</t>
+  </si>
+  <si>
+    <t>Alternativa 4
+[Filtrar localização] (passo 3)</t>
+  </si>
+  <si>
+    <t>Alternativa 5
+[Filtrar tipo de comida (passo 3)</t>
+  </si>
+  <si>
+    <t>Informa que restaurante foi adiconado  aos Favoritos</t>
+  </si>
+  <si>
+    <t>Informa que restaurante foi removido da lista de favoritos</t>
   </si>
 </sst>
 </file>
@@ -236,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -320,6 +460,147 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -372,7 +653,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,6 +722,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -821,18 +1185,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E71"/>
+  <dimension ref="B1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
@@ -840,191 +1205,192 @@
     <col min="10" max="10" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="33"/>
+      <c r="C2" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
-        <v>16</v>
+      <c r="B3" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="38"/>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
-      <c r="C5" s="16">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
+      <c r="E6" s="39" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="16">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="16">
         <v>5</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
+      <c r="E8" s="39" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="16">
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
+      <c r="E9" s="39" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="16">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="16">
         <v>8</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
+      <c r="E11" s="39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="28"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="16">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="28"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="16">
         <v>10</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
+      <c r="E13" s="39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="16">
         <v>11</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
+      <c r="E14" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="28"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="16">
         <v>12</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
+      <c r="E15" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="16"/>
       <c r="D16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
-        <v>18</v>
+      <c r="B17" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="16">
         <v>1</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
+      <c r="E17" s="39" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="16"/>
       <c r="D18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -1037,14 +1403,14 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -1054,7 +1420,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -1063,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -1074,7 +1440,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -1084,7 +1450,7 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -1094,7 +1460,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1104,7 +1470,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -1113,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="6"/>
     </row>
@@ -1124,7 +1490,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -1134,49 +1500,49 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="16"/>
       <c r="D32" s="22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="15">
         <v>1</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -1186,7 +1552,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -1195,28 +1561,26 @@
         <v>2</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="9"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="C40" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -1225,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E42" s="6"/>
     </row>
@@ -1236,7 +1600,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -1245,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44" s="6"/>
     </row>
@@ -1256,28 +1620,28 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="C46" s="16"/>
       <c r="D46" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="C47" s="16">
-        <v>1</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>38</v>
       </c>
       <c r="E47" s="26"/>
     </row>
@@ -1285,229 +1649,796 @@
       <c r="B48" s="7"/>
       <c r="C48" s="16"/>
       <c r="D48" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="17">
-        <v>1</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="E49" s="25"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="C51" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
+    <row r="50" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="33"/>
+      <c r="C51" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
-        <v>16</v>
+      <c r="B52" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="28"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="16">
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="28"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="16">
         <v>2</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="6" t="s">
-        <v>42</v>
+      <c r="E54" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="28"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="16">
         <v>3</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="39"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="63"/>
+      <c r="C56" s="16">
+        <v>4</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="40"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="23" t="s">
+      <c r="C58" s="61">
+        <v>1</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="33"/>
+      <c r="C60" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="54"/>
+      <c r="E60" s="55"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="38"/>
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="39"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="38"/>
+      <c r="C63" s="16">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="63"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="40"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="61">
+        <v>1</v>
+      </c>
+      <c r="D66" s="49"/>
+      <c r="E66" s="62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="33"/>
+      <c r="C68" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="54"/>
+      <c r="E68" s="55"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="38"/>
+      <c r="C70" s="16">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="39"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="38"/>
+      <c r="C71" s="16">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="63"/>
+      <c r="C72" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B57" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="15">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-      <c r="C59" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="40"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="61">
+        <v>1</v>
+      </c>
+      <c r="D74" s="49"/>
+      <c r="E74" s="62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="33"/>
+      <c r="C76" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="38"/>
+      <c r="C78" s="16">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="39"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="38"/>
+      <c r="C79" s="16">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="38"/>
+      <c r="C80" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="28"/>
-      <c r="C61" s="16">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="28"/>
-      <c r="C62" s="16">
-        <v>2</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="7"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="D80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="39"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="38"/>
+      <c r="C81" s="16">
+        <v>4</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="39"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="40"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="44"/>
+      <c r="C84" s="16">
+        <v>2</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="43"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="44"/>
+      <c r="C85" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B64" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="15">
-        <v>1</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-      <c r="C66" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="21" t="s">
+      <c r="D85" s="24"/>
+      <c r="E85" s="43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="44"/>
+      <c r="C86" s="16">
+        <v>4</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="44"/>
+      <c r="C87" s="16">
+        <v>5</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="40"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="16">
+        <v>1</v>
+      </c>
+      <c r="D89" s="32"/>
+      <c r="E89" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="51"/>
+      <c r="C90" s="30">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="51"/>
+      <c r="C91" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="28"/>
-      <c r="C68" s="16">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="28"/>
-      <c r="C69" s="16">
-        <v>2</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="7"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="23" t="s">
+      <c r="D91" s="5"/>
+      <c r="E91" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="52"/>
+      <c r="C92" s="48">
+        <v>4</v>
+      </c>
+      <c r="D92" s="49"/>
+      <c r="E92" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="33"/>
+      <c r="C94" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="54"/>
+      <c r="E94" s="55"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="38"/>
+      <c r="C96" s="16">
+        <v>1</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="39"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="38"/>
+      <c r="C97" s="16">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="38"/>
+      <c r="C98" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B71" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="15">
-        <v>1</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
+      <c r="D98" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="39"/>
+    </row>
+    <row r="99" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="38"/>
+      <c r="C99" s="16">
+        <v>5</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="39"/>
+    </row>
+    <row r="100" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="65"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B101" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" s="16">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="39"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="45"/>
+      <c r="C102" s="16">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="45"/>
+      <c r="C103" s="16">
+        <v>3</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="39"/>
+    </row>
+    <row r="104" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="45"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="65"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="40"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="41"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="16">
+        <v>1</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" s="39"/>
+    </row>
+    <row r="108" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="44"/>
+      <c r="C108" s="16">
+        <v>2</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="65"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="16">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="45"/>
+      <c r="C111" s="16">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="45"/>
+      <c r="C112" s="16">
+        <v>3</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="39"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="45"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" s="39"/>
+    </row>
+    <row r="114" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="40"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="65"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B116" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" s="16">
+        <v>1</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" s="39"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="45"/>
+      <c r="C117" s="16">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="45"/>
+      <c r="C118" s="16">
+        <v>3</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118" s="39"/>
+    </row>
+    <row r="119" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="40"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="65"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E120" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B121" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="16">
+        <v>1</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="39"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="45"/>
+      <c r="C122" s="16">
+        <v>2</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="45"/>
+      <c r="C123" s="16">
+        <v>3</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E123" s="39"/>
+    </row>
+    <row r="124" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="40"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="65"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B126" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="16">
+        <v>1</v>
+      </c>
+      <c r="D126" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="39"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="45"/>
+      <c r="C127" s="16">
+        <v>2</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="45"/>
+      <c r="C128" s="16">
+        <v>3</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128" s="39"/>
+    </row>
+    <row r="129" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="47"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B67:B69"/>
+  <mergeCells count="12">
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B61:B63"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
